--- a/data_process/xlsx/jongno_G6_processed.xlsx
+++ b/data_process/xlsx/jongno_G6_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>create_time</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,8 +561,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>126.9816208</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37.5654272</v>
       </c>
     </row>
     <row r="3">
@@ -611,8 +627,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>127.0087842</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37.5703168</v>
       </c>
     </row>
     <row r="4">
@@ -671,8 +693,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>126.977927</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.5647566</v>
       </c>
     </row>
     <row r="5">
@@ -731,8 +759,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>126.9753951</v>
+      </c>
+      <c r="N5" t="n">
+        <v>37.5706979</v>
       </c>
     </row>
     <row r="6">
@@ -791,8 +825,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>126.9803692</v>
+      </c>
+      <c r="N6" t="n">
+        <v>37.5670959</v>
       </c>
     </row>
     <row r="7">
@@ -851,8 +891,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>127.0076665</v>
+      </c>
+      <c r="N7" t="n">
+        <v>37.5687346</v>
       </c>
     </row>
     <row r="8">
@@ -911,8 +957,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>127.0013769</v>
+      </c>
+      <c r="N8" t="n">
+        <v>37.5713149</v>
       </c>
     </row>
     <row r="9">
@@ -971,8 +1023,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>126.9800463</v>
+      </c>
+      <c r="N9" t="n">
+        <v>37.5644687</v>
       </c>
     </row>
     <row r="10">
@@ -1031,8 +1089,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>126.981707</v>
+      </c>
+      <c r="N10" t="n">
+        <v>37.5641952</v>
       </c>
     </row>
     <row r="11">
@@ -1091,8 +1155,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>126.9847333</v>
+      </c>
+      <c r="N11" t="n">
+        <v>37.5642362</v>
       </c>
     </row>
     <row r="12">
@@ -1151,8 +1221,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>127.0047378</v>
+      </c>
+      <c r="N12" t="n">
+        <v>37.5811342</v>
       </c>
     </row>
     <row r="13">
@@ -1211,8 +1287,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>126.984207</v>
+      </c>
+      <c r="N13" t="n">
+        <v>37.5649208</v>
       </c>
     </row>
     <row r="14">
@@ -1271,8 +1353,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>126.9720468</v>
+      </c>
+      <c r="N14" t="n">
+        <v>37.5687024</v>
       </c>
     </row>
     <row r="15">
@@ -1331,8 +1419,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>126.981707</v>
+      </c>
+      <c r="N15" t="n">
+        <v>37.5641952</v>
       </c>
     </row>
     <row r="16">
@@ -1391,8 +1485,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>126.9733705</v>
+      </c>
+      <c r="N16" t="n">
+        <v>37.5727373</v>
       </c>
     </row>
     <row r="17">
@@ -1451,8 +1551,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>126.9822761</v>
+      </c>
+      <c r="N17" t="n">
+        <v>37.5631215</v>
       </c>
     </row>
     <row r="18">
@@ -1511,8 +1617,14 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>126.970994</v>
+      </c>
+      <c r="N18" t="n">
+        <v>37.5726246</v>
       </c>
     </row>
     <row r="19">
@@ -1571,8 +1683,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>126.9877535</v>
+      </c>
+      <c r="N19" t="n">
+        <v>37.5617443</v>
       </c>
     </row>
     <row r="20">
@@ -1631,8 +1749,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>126.9846497</v>
+      </c>
+      <c r="N20" t="n">
+        <v>37.5605566</v>
       </c>
     </row>
     <row r="21">
@@ -1691,8 +1815,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>126.9795418</v>
+      </c>
+      <c r="N21" t="n">
+        <v>37.5596664</v>
       </c>
     </row>
     <row r="22">
@@ -1751,8 +1881,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>127.0183571</v>
+      </c>
+      <c r="N22" t="n">
+        <v>37.5611198</v>
       </c>
     </row>
     <row r="23">
@@ -1811,8 +1947,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>126.9876696</v>
+      </c>
+      <c r="N23" t="n">
+        <v>37.5616681</v>
       </c>
     </row>
     <row r="24">
@@ -1871,8 +2013,14 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>126.9686008</v>
+      </c>
+      <c r="N24" t="n">
+        <v>37.5744035</v>
       </c>
     </row>
     <row r="25">
@@ -1931,8 +2079,14 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>127.0002141</v>
+      </c>
+      <c r="N25" t="n">
+        <v>37.5622577</v>
       </c>
     </row>
     <row r="26">
@@ -1991,8 +2145,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>126.987218</v>
+      </c>
+      <c r="N26" t="n">
+        <v>37.5614833</v>
       </c>
     </row>
     <row r="27">
@@ -2051,8 +2211,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>126.9748732</v>
+      </c>
+      <c r="N27" t="n">
+        <v>37.5571392</v>
       </c>
     </row>
     <row r="28">
@@ -2111,8 +2277,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>126.9798606</v>
+      </c>
+      <c r="N28" t="n">
+        <v>37.5708345</v>
       </c>
     </row>
     <row r="29">
@@ -2171,8 +2343,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>126.977927</v>
+      </c>
+      <c r="N29" t="n">
+        <v>37.5647566</v>
       </c>
     </row>
     <row r="30">
@@ -2231,8 +2409,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>126.9944864</v>
+      </c>
+      <c r="N30" t="n">
+        <v>37.5662196</v>
       </c>
     </row>
     <row r="31">
@@ -2291,8 +2475,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>126.976584</v>
+      </c>
+      <c r="N31" t="n">
+        <v>37.5683348</v>
       </c>
     </row>
     <row r="32">
@@ -2351,8 +2541,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>126.9804738</v>
+      </c>
+      <c r="N32" t="n">
+        <v>37.5725615</v>
       </c>
     </row>
     <row r="33">
@@ -2411,8 +2607,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>127.0076665</v>
+      </c>
+      <c r="N33" t="n">
+        <v>37.5687346</v>
       </c>
     </row>
     <row r="34">
@@ -2471,8 +2673,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>126.9850954</v>
+      </c>
+      <c r="N34" t="n">
+        <v>37.5672787</v>
       </c>
     </row>
     <row r="35">
@@ -2531,8 +2739,14 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>126.976584</v>
+      </c>
+      <c r="N35" t="n">
+        <v>37.5683348</v>
       </c>
     </row>
     <row r="36">
@@ -2591,8 +2805,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>126.9900498</v>
+      </c>
+      <c r="N36" t="n">
+        <v>37.5697051</v>
       </c>
     </row>
     <row r="37">
@@ -2651,8 +2871,14 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>126.9858643</v>
+      </c>
+      <c r="N37" t="n">
+        <v>37.5643862</v>
       </c>
     </row>
     <row r="38">
@@ -2711,8 +2937,14 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>126.9886047</v>
+      </c>
+      <c r="N38" t="n">
+        <v>37.5742255</v>
       </c>
     </row>
     <row r="39">
@@ -2771,8 +3003,14 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>126.9836758</v>
+      </c>
+      <c r="N39" t="n">
+        <v>37.5775553</v>
       </c>
     </row>
     <row r="40">
@@ -2831,8 +3069,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>126.998094</v>
+      </c>
+      <c r="N40" t="n">
+        <v>37.5725704</v>
       </c>
     </row>
     <row r="41">
@@ -2891,8 +3135,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>126.9856557</v>
+      </c>
+      <c r="N41" t="n">
+        <v>37.573405</v>
       </c>
     </row>
     <row r="42">
@@ -2951,8 +3201,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>127.0081041</v>
+      </c>
+      <c r="N42" t="n">
+        <v>37.5674846</v>
       </c>
     </row>
     <row r="43">
@@ -3011,8 +3267,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>126.9686008</v>
+      </c>
+      <c r="N43" t="n">
+        <v>37.5744035</v>
       </c>
     </row>
     <row r="44">
@@ -3071,8 +3333,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>126.9904428</v>
+      </c>
+      <c r="N44" t="n">
+        <v>37.5708711</v>
       </c>
     </row>
     <row r="45">
@@ -3131,8 +3399,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>126.9885735</v>
+      </c>
+      <c r="N45" t="n">
+        <v>37.5733025</v>
       </c>
     </row>
     <row r="46">
@@ -3191,8 +3465,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>126.9841142</v>
+      </c>
+      <c r="N46" t="n">
+        <v>37.5633753</v>
       </c>
     </row>
     <row r="47">
@@ -3251,8 +3531,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>126.9985401</v>
+      </c>
+      <c r="N47" t="n">
+        <v>37.568724</v>
       </c>
     </row>
     <row r="48">
@@ -3311,8 +3597,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>127.0109717</v>
+      </c>
+      <c r="N48" t="n">
+        <v>37.5726386</v>
       </c>
     </row>
     <row r="49">
@@ -3371,8 +3663,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>127.0156949</v>
+      </c>
+      <c r="N49" t="n">
+        <v>37.577424</v>
       </c>
     </row>
     <row r="50">
@@ -3431,8 +3729,14 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>127.0057016</v>
+      </c>
+      <c r="N50" t="n">
+        <v>37.5707402</v>
       </c>
     </row>
     <row r="51">
@@ -3491,8 +3795,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:58</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>126.9858885</v>
+      </c>
+      <c r="N51" t="n">
+        <v>37.5587166</v>
       </c>
     </row>
   </sheetData>
